--- a/文档/excel/慕课网等精品课程整理(新版).xlsx
+++ b/文档/excel/慕课网等精品课程整理(新版).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="333">
   <si>
     <t>排序</t>
   </si>
@@ -1228,6 +1228,15 @@
   </si>
   <si>
     <t>测试软件全套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">基于Dubbo分布式系统架构视频教程（吴水成版）
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接: https://pan.baidu.com/s/1jI9GDjo 密码: ti3d</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1788,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+      <selection activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3851,6 +3860,14 @@
         <v>329</v>
       </c>
     </row>
+    <row r="174" spans="2:5" ht="14.25" customHeight="1">
+      <c r="B174" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/文档/excel/慕课网等精品课程整理(新版).xlsx
+++ b/文档/excel/慕课网等精品课程整理(新版).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="335">
   <si>
     <t>排序</t>
   </si>
@@ -1237,6 +1237,14 @@
   </si>
   <si>
     <t>链接: https://pan.baidu.com/s/1jI9GDjo 密码: ti3d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.angularjsapi.cn/#/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>angularjs api接口</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1518,7 +1526,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1797,10 +1805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E174"/>
+  <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="E177" sqref="E177"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3868,14 +3876,24 @@
         <v>332</v>
       </c>
     </row>
+    <row r="175" spans="2:5">
+      <c r="B175" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C175" s="20" t="s">
+        <v>333</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C72" r:id="rId1"/>
     <hyperlink ref="C167" r:id="rId2" location="list/path=%2F"/>
+    <hyperlink ref="B175" r:id="rId3" location="/" display="http://www.angularjsapi.cn/#/"/>
+    <hyperlink ref="C175" r:id="rId4" location="/"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>